--- a/biology/Botanique/Sceau-de-Salomon_(plante)/Sceau-de-Salomon_(plante).xlsx
+++ b/biology/Botanique/Sceau-de-Salomon_(plante)/Sceau-de-Salomon_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle « Sceau-de-Salomon » diverses plantes monocotylédones. Il s'agit de plantes présentant une cicatrice laissée sur le rhizome par une tige aérienne fanée et mimant le sceau de Salomon. Il peut également s'agir de plantes ressemblant simplement à ces premières. 
-Par analogie morphologique, il est parfois appelé vernaculairement « muguet du pauvre»[1].
+Par analogie morphologique, il est parfois appelé vernaculairement « muguet du pauvre».
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Genre Polygonatum</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le genre Polygonatum regroupe les espèces présentant potentiellement une cicatrice. Par exemple :
 Sceau-de-Salomon multiflore ou Sceau-de-Salomon commun - Polygonatum multiflorum (L.) All.
@@ -546,7 +560,9 @@
           <t>Streptopus amplexifolius</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Streptopus amplexifolius (L.) DC. est appelé « Sceau-de-Salomon noueux », « Sceau-de-Salomon rameux » ou encore « Streptope à feuilles embrassantes ».
 </t>
